--- a/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
@@ -451,267 +451,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>007468</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>中信建投策略精选混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>82.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>007469</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>中信建投策略精选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>82.74</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>90.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>85.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004683</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信高端医疗股票</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005231</t>
+          <t>005486</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>红塔红土盛通灵活配置混合A</t>
+          <t>平安量化精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.86</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005232</t>
+          <t>880007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>红塔红土盛通灵活配置混合C</t>
+          <t>招商资管智远成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>69.86</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006547</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>红塔红土盛弘灵活配置混合A</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.66</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006548</t>
+          <t>001550</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>红塔红土盛弘灵活配置混合C</t>
+          <t>天弘中证医药100指数型发起式 A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.66</t>
+          <t>10.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008842</t>
+          <t>004683</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合A</t>
+          <t>建信高端医疗股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008843</t>
+          <t>006424</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合C</t>
+          <t>嘉合锦程价值精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>72.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009817</t>
+          <t>006547</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>红塔红土稳健精选混合A</t>
+          <t>红塔红土盛弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>40.71</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009818</t>
+          <t>000743</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红塔红土稳健精选混合C</t>
+          <t>红塔红土盛世普益灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>40.71</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>008180</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>同泰慧利混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.72</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006424</t>
+          <t>001551</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉合锦程价值精选混合A</t>
+          <t>天弘中证医药100指数型发起式 C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>72.28</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006425</t>
+          <t>008842</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉合锦程价值精选混合C</t>
+          <t>同泰远见灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72.28</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000743</t>
+          <t>006425</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>红塔红土盛世普益灵活配置混合</t>
+          <t>嘉合锦程价值精选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>64.07</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>72.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>398031</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中海蓝筹混合</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>77.59</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>881007</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数A</t>
+          <t>招商资管智远成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002982</t>
+          <t>009817</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数C</t>
+          <t>红塔红土稳健精选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007281</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉合消费升级混合</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>005231</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>红塔红土盛通灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001537</t>
+          <t>398031</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中加改革红利灵活配置混合</t>
+          <t>中海蓝筹混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>77.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001550</t>
+          <t>001537</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 A</t>
+          <t>中加改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001551</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 C</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>008997</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>同泰竞争优势混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008997</t>
+          <t>007770</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合A</t>
+          <t>同泰开泰混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008998</t>
+          <t>007281</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合C</t>
+          <t>嘉合消费升级混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005486</t>
+          <t>005232</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>平安量化精选混合A</t>
+          <t>红塔红土盛通灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005487</t>
+          <t>009818</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平安量化精选混合C</t>
+          <t>红塔红土稳健精选混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007770</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>同泰开泰混合A</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007771</t>
+          <t>008843</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>同泰开泰混合C</t>
+          <t>同泰远见灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>3.93</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>008998</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>同泰竞争优势混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>008181</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>同泰慧利混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>94.33</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>4.86</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>006548</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>红塔红土盛弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>880007</t>
+          <t>005487</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合A</t>
+          <t>平安量化精选混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>84.42</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>881007</t>
+          <t>007771</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合C</t>
+          <t>同泰开泰混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>84.42</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2227,4 +2228,1960 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5942</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4607</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002717</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>42.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003319</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003320</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4184,4 +4185,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4545,4 +4546,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4554,7 +4555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4565,17 +4566,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4585,14 +4606,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4601,14 +4644,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.03</v>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4617,14 +4682,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.07</v>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6453</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4633,13 +4720,2697 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4960</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>44.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>44.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7309,7 +7310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7320,17 +7321,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7340,14 +7361,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.19</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7356,14 +7399,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.43</v>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7372,14 +7437,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.03</v>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -7388,14 +7475,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.07</v>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7404,13 +7513,1723 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9890</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6675</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9112,7 +9113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9123,17 +9124,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9143,14 +9164,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.54</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9159,14 +9202,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.19</v>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -9175,14 +9240,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.43</v>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6796</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -9191,14 +9278,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.03</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9207,14 +9316,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.07</v>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3910</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -9223,13 +9354,4053 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2948</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2948</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1970</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1227</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9620</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8314</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5417</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5416</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4906</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4662</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014813</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D2" t="n">
-        <v>32.09</v>
+        <v>34.03</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
-        <v>15.54</v>
+        <v>32.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>9.19</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>0.43</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.03</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>2.07</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -600,6 +617,5524 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>131.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5689</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5444</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2440</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安宏利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3846</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014773</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安品质领先混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>560900</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012982</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银新药ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012981</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011050</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘裕新混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>天弘恒新混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014774</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安品质领先混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011051</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>天弘裕新混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>天弘恒新混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>016294</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华安宏利混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014813</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4753,7 +10288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6555,7 +12090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9309,7 +14844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9669,7 +15204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11625,7 +17160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13049,7 +18584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000963-华东医药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="D2" t="n">
-        <v>34.03</v>
+        <v>45.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D3" t="n">
-        <v>32.09</v>
+        <v>34.03</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>15.54</v>
+        <v>32.09</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>9.19</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>5.03</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>2.07</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,390 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +994,8192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H215"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4889</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4797</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4569</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2666</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1740</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商金安成长严选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安宏利混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8421</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8084</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6768</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6270</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6126</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6124</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5839</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5038</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4868</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2547</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>59.45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014987</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>560900</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上投摩根中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014773</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安品质领先混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012982</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银新药ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011050</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘裕新混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012981</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中加科鑫混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>014774</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华安品质领先混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011051</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>天弘裕新混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>014988</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>015497</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>014047</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>016579</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>013505</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>015498</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>014813</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>中加科鑫混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>016294</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>华安宏利混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6134,7 +14697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10288,7 +18851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12090,7 +20653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14844,7 +23407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15204,7 +23767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17160,7 +25723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18582,364 +27145,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2119</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0937</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0731</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>